--- a/va_facility_data_2025-02-20/John L. McClellan Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''John%20L.%20McClellan%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/John L. McClellan Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''John%20L.%20McClellan%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rd9a5dc6bf8954c239ac96f48a7662e51"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rdb7d598a07af480bac85be35b6a9fdca"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Refc618dcb5924296b9df950c19f4fb70"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rf01ba82cff434d07889421755250c3d3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R4c7ade7366d749afa7a4bd8f972a9c1a"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rce6824ddd86f417894019e19cee82669"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rf98191bfb0e0453b92a13c07135f2110"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R59698d59753445d7ab0bc6bb345cefe7"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R1ef0f579f5644405b3c6dec6d583afd5"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R813e0122a6c3465fb7f1f7a9109b83b6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2eec1c08bf9c45219f2a71ea47e09642"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R87352e488eec47df9f2d8337b5c31875"/>
   </x:sheets>
 </x:workbook>
 </file>
